--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.91119833333333</v>
+        <v>22.95531766666667</v>
       </c>
       <c r="H2">
-        <v>71.73359499999999</v>
+        <v>68.865953</v>
       </c>
       <c r="I2">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="J2">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>3914.549750849091</v>
+        <v>3660.997557622127</v>
       </c>
       <c r="R2">
-        <v>35230.94775764181</v>
+        <v>32948.97801859914</v>
       </c>
       <c r="S2">
-        <v>0.05451162897324572</v>
+        <v>0.05131312832657786</v>
       </c>
       <c r="T2">
-        <v>0.05451162897324572</v>
+        <v>0.05131312832657786</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.91119833333333</v>
+        <v>22.95531766666667</v>
       </c>
       <c r="H3">
-        <v>71.73359499999999</v>
+        <v>68.865953</v>
       </c>
       <c r="I3">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="J3">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>4126.080445868904</v>
+        <v>3961.135114717547</v>
       </c>
       <c r="R3">
-        <v>37134.72401282014</v>
+        <v>35650.21603245792</v>
       </c>
       <c r="S3">
-        <v>0.05745727623724377</v>
+        <v>0.05551990441436801</v>
       </c>
       <c r="T3">
-        <v>0.05745727623724377</v>
+        <v>0.05551990441436801</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.91119833333333</v>
+        <v>22.95531766666667</v>
       </c>
       <c r="H4">
-        <v>71.73359499999999</v>
+        <v>68.865953</v>
       </c>
       <c r="I4">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="J4">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>2665.815609193593</v>
+        <v>1707.593414072834</v>
       </c>
       <c r="R4">
-        <v>23992.34048274233</v>
+        <v>15368.3407266555</v>
       </c>
       <c r="S4">
-        <v>0.03712251999554425</v>
+        <v>0.02393390287942456</v>
       </c>
       <c r="T4">
-        <v>0.03712251999554426</v>
+        <v>0.02393390287942456</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.91119833333333</v>
+        <v>22.95531766666667</v>
       </c>
       <c r="H5">
-        <v>71.73359499999999</v>
+        <v>68.865953</v>
       </c>
       <c r="I5">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="J5">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>1428.320208978728</v>
+        <v>1340.926028397487</v>
       </c>
       <c r="R5">
-        <v>12854.88188080855</v>
+        <v>12068.33425557738</v>
       </c>
       <c r="S5">
-        <v>0.01988991486695216</v>
+        <v>0.01879463405495957</v>
       </c>
       <c r="T5">
-        <v>0.01988991486695216</v>
+        <v>0.01879463405495957</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.91119833333333</v>
+        <v>22.95531766666667</v>
       </c>
       <c r="H6">
-        <v>71.73359499999999</v>
+        <v>68.865953</v>
       </c>
       <c r="I6">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="J6">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>2079.269562238829</v>
+        <v>1601.04654432795</v>
       </c>
       <c r="R6">
-        <v>18713.42606014946</v>
+        <v>14409.41889895155</v>
       </c>
       <c r="S6">
-        <v>0.02895463798551571</v>
+        <v>0.02244052488231782</v>
       </c>
       <c r="T6">
-        <v>0.02895463798551571</v>
+        <v>0.02244052488231783</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>186.642341</v>
       </c>
       <c r="I7">
-        <v>0.5150060346614912</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="J7">
-        <v>0.5150060346614913</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>10185.19606412367</v>
+        <v>9922.133141029444</v>
       </c>
       <c r="R7">
-        <v>91666.76457711299</v>
+        <v>89299.19826926499</v>
       </c>
       <c r="S7">
-        <v>0.141832819661276</v>
+        <v>0.1390702078123555</v>
       </c>
       <c r="T7">
-        <v>0.141832819661276</v>
+        <v>0.1390702078123555</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>186.642341</v>
       </c>
       <c r="I8">
-        <v>0.5150060346614912</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="J8">
-        <v>0.5150060346614913</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>10735.57394650716</v>
@@ -948,10 +948,10 @@
         <v>96620.16551856442</v>
       </c>
       <c r="S8">
-        <v>0.1494970459016148</v>
+        <v>0.1504715244700655</v>
       </c>
       <c r="T8">
-        <v>0.1494970459016149</v>
+        <v>0.1504715244700655</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>186.642341</v>
       </c>
       <c r="I9">
-        <v>0.5150060346614912</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="J9">
-        <v>0.5150060346614913</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>6936.137328322012</v>
+        <v>4627.965175748544</v>
       </c>
       <c r="R9">
-        <v>62425.23595489811</v>
+        <v>41651.6865817369</v>
       </c>
       <c r="S9">
-        <v>0.09658841210715409</v>
+        <v>0.06486630138818293</v>
       </c>
       <c r="T9">
-        <v>0.0965884121071541</v>
+        <v>0.06486630138818295</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>186.642341</v>
       </c>
       <c r="I10">
-        <v>0.5150060346614912</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="J10">
-        <v>0.5150060346614913</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>3716.320470225965</v>
+        <v>3634.213455928495</v>
       </c>
       <c r="R10">
-        <v>33446.88423203368</v>
+        <v>32707.92110335646</v>
       </c>
       <c r="S10">
-        <v>0.05175120908214141</v>
+        <v>0.05093771806593566</v>
       </c>
       <c r="T10">
-        <v>0.05175120908214142</v>
+        <v>0.05093771806593566</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>186.642341</v>
       </c>
       <c r="I11">
-        <v>0.5150060346614912</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="J11">
-        <v>0.5150060346614913</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>5410.013797109991</v>
+        <v>4339.199010043885</v>
       </c>
       <c r="R11">
-        <v>48690.12417398992</v>
+        <v>39052.79109039497</v>
       </c>
       <c r="S11">
-        <v>0.07533654790930491</v>
+        <v>0.06081890854403114</v>
       </c>
       <c r="T11">
-        <v>0.07533654790930491</v>
+        <v>0.06081890854403115</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.608769666666667</v>
+        <v>7.783044333333334</v>
       </c>
       <c r="H12">
-        <v>4.826309</v>
+        <v>23.349133</v>
       </c>
       <c r="I12">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698088</v>
       </c>
       <c r="J12">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698089</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>263.3748760740449</v>
+        <v>1241.268219806589</v>
       </c>
       <c r="R12">
-        <v>2370.373884666404</v>
+        <v>11171.4139782593</v>
       </c>
       <c r="S12">
-        <v>0.003667597664918879</v>
+        <v>0.01739781424274102</v>
       </c>
       <c r="T12">
-        <v>0.003667597664918879</v>
+        <v>0.01739781424274103</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.608769666666667</v>
+        <v>7.783044333333334</v>
       </c>
       <c r="H13">
-        <v>4.826309</v>
+        <v>23.349133</v>
       </c>
       <c r="I13">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698088</v>
       </c>
       <c r="J13">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698089</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>277.606875699191</v>
+        <v>1343.030432244367</v>
       </c>
       <c r="R13">
-        <v>2498.461881292719</v>
+        <v>12087.2738901993</v>
       </c>
       <c r="S13">
-        <v>0.003865783799338313</v>
+        <v>0.01882412971644153</v>
       </c>
       <c r="T13">
-        <v>0.003865783799338313</v>
+        <v>0.01882412971644153</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.608769666666667</v>
+        <v>7.783044333333334</v>
       </c>
       <c r="H14">
-        <v>4.826309</v>
+        <v>23.349133</v>
       </c>
       <c r="I14">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698088</v>
       </c>
       <c r="J14">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698089</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>179.3587769718152</v>
+        <v>578.9628110586178</v>
       </c>
       <c r="R14">
-        <v>1614.228992746337</v>
+        <v>5210.665299527562</v>
       </c>
       <c r="S14">
-        <v>0.002497640782637134</v>
+        <v>0.00811483552025726</v>
       </c>
       <c r="T14">
-        <v>0.002497640782637135</v>
+        <v>0.008114835520257262</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.608769666666667</v>
+        <v>7.783044333333334</v>
       </c>
       <c r="H15">
-        <v>4.826309</v>
+        <v>23.349133</v>
       </c>
       <c r="I15">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698088</v>
       </c>
       <c r="J15">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698089</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>96.09883178831221</v>
+        <v>454.6435330709022</v>
       </c>
       <c r="R15">
-        <v>864.8894860948099</v>
+        <v>4091.791797638119</v>
       </c>
       <c r="S15">
-        <v>0.001338213637997719</v>
+        <v>0.006372356601753267</v>
       </c>
       <c r="T15">
-        <v>0.001338213637997719</v>
+        <v>0.006372356601753269</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.608769666666667</v>
+        <v>7.783044333333334</v>
       </c>
       <c r="H16">
-        <v>4.826309</v>
+        <v>23.349133</v>
       </c>
       <c r="I16">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698088</v>
       </c>
       <c r="J16">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698089</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>139.8953642524025</v>
+        <v>542.8378912102427</v>
       </c>
       <c r="R16">
-        <v>1259.058278271623</v>
+        <v>4885.541020892185</v>
       </c>
       <c r="S16">
-        <v>0.001948097399847817</v>
+        <v>0.007608502855787795</v>
       </c>
       <c r="T16">
-        <v>0.001948097399847817</v>
+        <v>0.007608502855787798</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>26.045992</v>
+        <v>30.44016466666666</v>
       </c>
       <c r="H17">
-        <v>78.13797599999999</v>
+        <v>91.320494</v>
       </c>
       <c r="I17">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="J17">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>4264.041060296117</v>
+        <v>4854.708182065614</v>
       </c>
       <c r="R17">
-        <v>38376.36954266505</v>
+        <v>43692.37363859053</v>
       </c>
       <c r="S17">
-        <v>0.0593784314926971</v>
+        <v>0.06804436769311074</v>
       </c>
       <c r="T17">
-        <v>0.05937843149269709</v>
+        <v>0.06804436769311074</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>26.045992</v>
+        <v>30.44016466666666</v>
       </c>
       <c r="H18">
-        <v>78.13797599999999</v>
+        <v>91.320494</v>
       </c>
       <c r="I18">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="J18">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>4494.457232394024</v>
+        <v>5252.709063312505</v>
       </c>
       <c r="R18">
-        <v>40450.11509154621</v>
+        <v>47274.38156981255</v>
       </c>
       <c r="S18">
-        <v>0.0625870663759585</v>
+        <v>0.07362281181170711</v>
       </c>
       <c r="T18">
-        <v>0.0625870663759585</v>
+        <v>0.07362281181170711</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>26.045992</v>
+        <v>30.44016466666666</v>
       </c>
       <c r="H19">
-        <v>78.13797599999999</v>
+        <v>91.320494</v>
       </c>
       <c r="I19">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="J19">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>2903.819836320685</v>
+        <v>2264.374009668866</v>
       </c>
       <c r="R19">
-        <v>26134.37852688617</v>
+        <v>20379.3660870198</v>
       </c>
       <c r="S19">
-        <v>0.04043682149864867</v>
+        <v>0.03173782891376052</v>
       </c>
       <c r="T19">
-        <v>0.04043682149864868</v>
+        <v>0.03173782891376053</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>26.045992</v>
+        <v>30.44016466666666</v>
       </c>
       <c r="H20">
-        <v>78.13797599999999</v>
+        <v>91.320494</v>
       </c>
       <c r="I20">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="J20">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>1555.840749505093</v>
+        <v>1778.150479246493</v>
       </c>
       <c r="R20">
-        <v>14002.56674554584</v>
+        <v>16003.35431321844</v>
       </c>
       <c r="S20">
-        <v>0.02166568802965962</v>
+        <v>0.02492284200943434</v>
       </c>
       <c r="T20">
-        <v>0.02166568802965962</v>
+        <v>0.02492284200943434</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>26.045992</v>
+        <v>30.44016466666666</v>
       </c>
       <c r="H21">
-        <v>78.13797599999999</v>
+        <v>91.320494</v>
       </c>
       <c r="I21">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="J21">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>2264.906912190141</v>
+        <v>2123.086299916901</v>
       </c>
       <c r="R21">
-        <v>20384.16220971127</v>
+        <v>19107.77669925211</v>
       </c>
       <c r="S21">
-        <v>0.03153971034075338</v>
+        <v>0.02975751773699487</v>
       </c>
       <c r="T21">
-        <v>0.03153971034075338</v>
+        <v>0.02975751773699488</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.022615000000001</v>
+        <v>10.06688366666667</v>
       </c>
       <c r="H22">
-        <v>21.067845</v>
+        <v>30.200651</v>
       </c>
       <c r="I22">
-        <v>0.05813293625755009</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="J22">
-        <v>0.0581329362575501</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N22">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O22">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P22">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q22">
-        <v>1149.686243881647</v>
+        <v>1605.503223771524</v>
       </c>
       <c r="R22">
-        <v>10347.17619493482</v>
+        <v>14449.52901394371</v>
       </c>
       <c r="S22">
-        <v>0.0160098284479657</v>
+        <v>0.02250299041544073</v>
       </c>
       <c r="T22">
-        <v>0.0160098284479657</v>
+        <v>0.02250299041544073</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.022615000000001</v>
+        <v>10.06688366666667</v>
       </c>
       <c r="H23">
-        <v>21.067845</v>
+        <v>30.200651</v>
       </c>
       <c r="I23">
-        <v>0.05813293625755009</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="J23">
-        <v>0.0581329362575501</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q23">
-        <v>1211.811889409655</v>
+        <v>1737.126314993849</v>
       </c>
       <c r="R23">
-        <v>10906.3070046869</v>
+        <v>15634.13683494464</v>
       </c>
       <c r="S23">
-        <v>0.01687495224362358</v>
+        <v>0.02434784075044584</v>
       </c>
       <c r="T23">
-        <v>0.01687495224362358</v>
+        <v>0.02434784075044584</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.022615000000001</v>
+        <v>10.06688366666667</v>
       </c>
       <c r="H24">
-        <v>21.067845</v>
+        <v>30.200651</v>
       </c>
       <c r="I24">
-        <v>0.05813293625755009</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="J24">
-        <v>0.0581329362575501</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N24">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q24">
-        <v>782.9384551697317</v>
+        <v>748.8523791765741</v>
       </c>
       <c r="R24">
-        <v>7046.446096527586</v>
+        <v>6739.671412589167</v>
       </c>
       <c r="S24">
-        <v>0.01090272273786818</v>
+        <v>0.01049603492642288</v>
       </c>
       <c r="T24">
-        <v>0.01090272273786818</v>
+        <v>0.01049603492642288</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.022615000000001</v>
+        <v>10.06688366666667</v>
       </c>
       <c r="H25">
-        <v>21.067845</v>
+        <v>30.200651</v>
       </c>
       <c r="I25">
-        <v>0.05813293625755009</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="J25">
-        <v>0.0581329362575501</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N25">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q25">
-        <v>419.4914359601167</v>
+        <v>588.053126926866</v>
       </c>
       <c r="R25">
-        <v>3775.42292364105</v>
+        <v>5292.478142341794</v>
       </c>
       <c r="S25">
-        <v>0.005841581527876078</v>
+        <v>0.008242246843901931</v>
       </c>
       <c r="T25">
-        <v>0.005841581527876077</v>
+        <v>0.008242246843901933</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.022615000000001</v>
+        <v>10.06688366666667</v>
       </c>
       <c r="H26">
-        <v>21.067845</v>
+        <v>30.200651</v>
       </c>
       <c r="I26">
-        <v>0.05813293625755009</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="J26">
-        <v>0.0581329362575501</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N26">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O26">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P26">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q26">
-        <v>610.6724311038017</v>
+        <v>702.1270426622054</v>
       </c>
       <c r="R26">
-        <v>5496.051879934215</v>
+        <v>6319.143383959849</v>
       </c>
       <c r="S26">
-        <v>0.008503851300216549</v>
+        <v>0.0098411251235817</v>
       </c>
       <c r="T26">
-        <v>0.008503851300216548</v>
+        <v>0.009841125123581703</v>
       </c>
     </row>
   </sheetData>
